--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-613556.858684279</v>
+        <v>-616273.8699011627</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13378346.69327978</v>
+        <v>13388432.46358464</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>145.198658204325</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E2" t="n">
-        <v>88.0908181594307</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663198</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>166.4775607908875</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,16 +750,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>119.2283896050401</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>69.7079576385393</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2266044670639</v>
+        <v>281.9847926097936</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>91.88327023464224</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S5" t="n">
-        <v>138.9226877533236</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0995622639908</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -981,19 +981,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>96.33974436151192</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>42.85514838391069</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>43.49079940888618</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>141.1117410536291</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5306922801482</v>
+        <v>180.1291938741133</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>44.66731428182015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>37.30041816355184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>54.96639070833184</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2437649536344</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>197.9525653533585</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>299.0557403031167</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>33.40416234373339</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>20.27697994470624</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>72.2230870623435</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>71.39783265544058</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>410.4130485258811</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>21.96615481219195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>25.65253336402974</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>201.6912360136721</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9544777886962</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>335.94641251876</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4224477376697</v>
+        <v>134.7273029082527</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>86.96832235308709</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>9.44658218675589</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.4255876952162</v>
+        <v>123.0881387803871</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3907690366107</v>
+        <v>189.6195493075132</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7492064608734</v>
+        <v>225.769262722096</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>142.7263313093538</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>86.72290329780397</v>
+        <v>44.2902388292728</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.5740195273609</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1993922939259</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710064</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>136.2892803597729</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>127.9967681169583</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701343</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>90.14863908058307</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>75.00788511618036</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>43.87236189622282</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>43.73846614325565</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>196.786745426035</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>112.0357928422982</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>95.05806357631816</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>89.67992556049168</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3433,7 +3433,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>13.72582864853771</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>9.14614278817986</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>145.2857567969026</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.07916359105462</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482.8222414097403</v>
+        <v>414.0172523312948</v>
       </c>
       <c r="C2" t="n">
-        <v>482.8222414097403</v>
+        <v>224.59746731481</v>
       </c>
       <c r="D2" t="n">
-        <v>293.4024563932556</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="E2" t="n">
-        <v>204.4218319897903</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
         <v>15.00204697330559</v>
@@ -4328,52 +4328,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R2" t="n">
-        <v>672.242026426225</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S2" t="n">
-        <v>672.242026426225</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T2" t="n">
-        <v>672.242026426225</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U2" t="n">
-        <v>672.242026426225</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V2" t="n">
-        <v>672.242026426225</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="W2" t="n">
-        <v>672.242026426225</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="X2" t="n">
-        <v>482.8222414097403</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097403</v>
+        <v>560.6825636487948</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>336.2349471645392</v>
+        <v>440.249846876027</v>
       </c>
       <c r="C3" t="n">
-        <v>168.0757948505114</v>
+        <v>265.7968175949</v>
       </c>
       <c r="D3" t="n">
-        <v>168.0757948505114</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="E3" t="n">
-        <v>168.0757948505114</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="F3" t="n">
-        <v>168.0757948505114</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296056</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017059</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264276</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S3" t="n">
-        <v>525.6547321810239</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T3" t="n">
-        <v>525.6547321810239</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U3" t="n">
-        <v>336.2349471645392</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V3" t="n">
-        <v>336.2349471645392</v>
+        <v>629.6696318925118</v>
       </c>
       <c r="W3" t="n">
-        <v>336.2349471645392</v>
+        <v>629.6696318925118</v>
       </c>
       <c r="X3" t="n">
-        <v>336.2349471645392</v>
+        <v>629.6696318925118</v>
       </c>
       <c r="Y3" t="n">
-        <v>336.2349471645392</v>
+        <v>440.249846876027</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
         <v>15.00204697330559</v>
@@ -4492,46 +4492,46 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9899398517071</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396325</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>973.0221374298039</v>
+        <v>1404.854736667761</v>
       </c>
       <c r="C5" t="n">
-        <v>973.0221374298039</v>
+        <v>1404.854736667761</v>
       </c>
       <c r="D5" t="n">
-        <v>614.7564388230535</v>
+        <v>1046.58903806101</v>
       </c>
       <c r="E5" t="n">
-        <v>614.7564388230535</v>
+        <v>1046.58903806101</v>
       </c>
       <c r="F5" t="n">
-        <v>544.3443604002865</v>
+        <v>635.6031332714028</v>
       </c>
       <c r="G5" t="n">
-        <v>127.9538508375957</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H5" t="n">
-        <v>127.9538508375957</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
-        <v>35.14246676219948</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>114.3791390966229</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K5" t="n">
-        <v>283.872889183539</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>531.0466356869074</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M5" t="n">
-        <v>837.7444913982622</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1154.018847436596</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>1439.332492111295</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>1648.340086017733</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>1757.123338109974</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>1757.123338109974</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S5" t="n">
-        <v>1616.797390884394</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T5" t="n">
-        <v>1616.797390884394</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U5" t="n">
-        <v>1363.161469405616</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="V5" t="n">
-        <v>1363.161469405616</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="W5" t="n">
-        <v>1363.161469405616</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="X5" t="n">
-        <v>1363.161469405616</v>
+        <v>1794.994068643573</v>
       </c>
       <c r="Y5" t="n">
-        <v>973.0221374298039</v>
+        <v>1404.854736667761</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>804.9028204462014</v>
+        <v>686.8333161061965</v>
       </c>
       <c r="C6" t="n">
-        <v>630.4497911650744</v>
+        <v>512.3802868250696</v>
       </c>
       <c r="D6" t="n">
-        <v>481.5153815038232</v>
+        <v>363.4458771638183</v>
       </c>
       <c r="E6" t="n">
-        <v>322.2779264983677</v>
+        <v>363.4458771638183</v>
       </c>
       <c r="F6" t="n">
-        <v>175.7433685252526</v>
+        <v>216.9113191907033</v>
       </c>
       <c r="G6" t="n">
-        <v>175.7433685252526</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H6" t="n">
-        <v>78.43049543281634</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I6" t="n">
-        <v>35.14246676219948</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>63.51743902204126</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K6" t="n">
-        <v>190.169610838122</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L6" t="n">
-        <v>406.7916268487798</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M6" t="n">
-        <v>678.9361703050727</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N6" t="n">
-        <v>972.6922149510383</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O6" t="n">
-        <v>1219.201810701767</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P6" t="n">
-        <v>1397.714427718304</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q6" t="n">
-        <v>1467.126188298635</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1423.196087885618</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1280.658975710235</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T6" t="n">
-        <v>1085.17342795251</v>
+        <v>1552.289618291742</v>
       </c>
       <c r="U6" t="n">
-        <v>1085.17342795251</v>
+        <v>1552.289618291742</v>
       </c>
       <c r="V6" t="n">
-        <v>850.0213197207672</v>
+        <v>1317.137510059999</v>
       </c>
       <c r="W6" t="n">
-        <v>850.0213197207672</v>
+        <v>1062.900153331797</v>
       </c>
       <c r="X6" t="n">
-        <v>850.0213197207672</v>
+        <v>855.0486531262645</v>
       </c>
       <c r="Y6" t="n">
-        <v>804.9028204462014</v>
+        <v>855.0486531262645</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35.14246676219948</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="C7" t="n">
-        <v>35.14246676219948</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="D7" t="n">
-        <v>35.14246676219948</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>35.14246676219948</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
-        <v>35.14246676219948</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>35.14246676219948</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>35.14246676219948</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>35.14246676219948</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
-        <v>35.14246676219948</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
-        <v>66.12938747686115</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L7" t="n">
-        <v>135.6877752704309</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M7" t="n">
-        <v>212.2856254073025</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N7" t="n">
-        <v>294.9196757784804</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O7" t="n">
-        <v>350.9325070872664</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P7" t="n">
-        <v>379.7991896530745</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>379.7991896530745</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R7" t="n">
-        <v>379.7991896530745</v>
+        <v>482.6121569764053</v>
       </c>
       <c r="S7" t="n">
-        <v>379.7991896530745</v>
+        <v>482.6121569764053</v>
       </c>
       <c r="T7" t="n">
-        <v>324.2775828769817</v>
+        <v>482.6121569764053</v>
       </c>
       <c r="U7" t="n">
-        <v>35.14246676219948</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="V7" t="n">
-        <v>35.14246676219948</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="W7" t="n">
-        <v>35.14246676219948</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="X7" t="n">
-        <v>35.14246676219948</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="Y7" t="n">
-        <v>35.14246676219948</v>
+        <v>193.4858359504288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1193.650443247784</v>
+        <v>852.1339951821335</v>
       </c>
       <c r="C8" t="n">
-        <v>1193.650443247784</v>
+        <v>852.1339951821335</v>
       </c>
       <c r="D8" t="n">
-        <v>835.3847446410336</v>
+        <v>852.1339951821335</v>
       </c>
       <c r="E8" t="n">
-        <v>835.3847446410336</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="F8" t="n">
-        <v>424.3988398514261</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301905</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232728</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711882</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1914.852662567167</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1583.789775223596</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.789775223596</v>
+        <v>1815.691171634539</v>
       </c>
       <c r="X8" t="n">
-        <v>1583.789775223596</v>
+        <v>1442.225413373459</v>
       </c>
       <c r="Y8" t="n">
-        <v>1193.650443247784</v>
+        <v>1052.086081397647</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>641.5772318812196</v>
+        <v>693.0104463829875</v>
       </c>
       <c r="C9" t="n">
-        <v>641.5772318812196</v>
+        <v>518.5574171018606</v>
       </c>
       <c r="D9" t="n">
-        <v>492.6428222199684</v>
+        <v>369.6230074406093</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9012440949851</v>
+        <v>210.3855524351538</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3666861218701</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581919</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972668</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1734.238298972668</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1539.527977446644</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>1311.426387579908</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V9" t="n">
-        <v>1311.426387579908</v>
+        <v>1531.074939101744</v>
       </c>
       <c r="W9" t="n">
-        <v>1057.189030851706</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X9" t="n">
-        <v>849.3375306461735</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y9" t="n">
-        <v>641.5772318812196</v>
+        <v>861.2257834030556</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>411.124850812683</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="C10" t="n">
-        <v>338.1722376183966</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183966</v>
+        <v>115.4882194223765</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360035</v>
+        <v>115.4882194223765</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809315</v>
+        <v>115.4882194223765</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809315</v>
+        <v>115.4882194223765</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809315</v>
+        <v>115.4882194223765</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>411.124850812683</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>411.124850812683</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>411.124850812683</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>411.124850812683</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>411.124850812683</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="W10" t="n">
-        <v>411.124850812683</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="X10" t="n">
-        <v>411.124850812683</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="Y10" t="n">
-        <v>411.124850812683</v>
+        <v>265.6048588347122</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>1628.680059687759</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1259.717542747348</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>901.4518441405974</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>515.6635915423532</v>
       </c>
       <c r="F11" t="n">
-        <v>793.22209597083</v>
+        <v>515.6635915423532</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872365</v>
+        <v>101.1049566677258</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608053</v>
+        <v>101.1049566677258</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608053</v>
+        <v>78.91692150389558</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251935</v>
+        <v>310.5376544656538</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128753</v>
+        <v>708.4156099402708</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.45766301865</v>
+        <v>1238.920158339963</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957687</v>
+        <v>1860.878123161962</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874793</v>
+        <v>2497.513826470647</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333932</v>
+        <v>3085.335606994461</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021279</v>
+        <v>3552.526896075043</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127286</v>
+        <v>3855.195350919257</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304024</v>
+        <v>3945.846075194779</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070873</v>
+        <v>3919.934425332122</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750192</v>
+        <v>3716.205904106191</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469741</v>
+        <v>3462.716532602458</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.39853312617</v>
+        <v>3131.653645258887</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856056</v>
+        <v>2778.884989988773</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.164119594976</v>
+        <v>2405.419231727693</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2015.279899751881</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>942.6241165038822</v>
+        <v>941.553350645143</v>
       </c>
       <c r="C12" t="n">
-        <v>768.1710872227552</v>
+        <v>767.1003213640161</v>
       </c>
       <c r="D12" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1659117027648</v>
       </c>
       <c r="E12" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9284566973093</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>312.3938987241943</v>
       </c>
       <c r="G12" t="n">
-        <v>177.6844143428629</v>
+        <v>176.3057139683834</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608053</v>
+        <v>88.45892371273992</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608053</v>
+        <v>78.91692150389558</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779265</v>
+        <v>78.91692150389558</v>
       </c>
       <c r="K12" t="n">
-        <v>570.9683475412853</v>
+        <v>78.91692150389558</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.700680385037</v>
+        <v>470.480913234027</v>
       </c>
       <c r="M12" t="n">
-        <v>1653.719034637164</v>
+        <v>986.0283535715346</v>
       </c>
       <c r="N12" t="n">
-        <v>2275.814998036501</v>
+        <v>1529.629445511237</v>
       </c>
       <c r="O12" t="n">
-        <v>2552.77562977024</v>
+        <v>2004.698448343759</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2366.650139696705</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2558.686063524931</v>
       </c>
       <c r="R12" t="n">
-        <v>2552.77562977024</v>
+        <v>2558.686063524931</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.354610211409</v>
       </c>
       <c r="T12" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.819711920991</v>
       </c>
       <c r="U12" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.769951595642</v>
       </c>
       <c r="V12" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.617843363899</v>
       </c>
       <c r="W12" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.380486635698</v>
       </c>
       <c r="X12" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.528986430165</v>
       </c>
       <c r="Y12" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.768687665211</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.385284034031</v>
+        <v>836.9407963480313</v>
       </c>
       <c r="C13" t="n">
-        <v>929.4491011061236</v>
+        <v>668.0046134201244</v>
       </c>
       <c r="D13" t="n">
-        <v>779.3324616937879</v>
+        <v>517.8879740077887</v>
       </c>
       <c r="E13" t="n">
-        <v>631.4193681113948</v>
+        <v>369.9748804253956</v>
       </c>
       <c r="F13" t="n">
-        <v>484.5294206134844</v>
+        <v>223.0849329274852</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880633</v>
+        <v>223.0849329274852</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>78.91692150389558</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608053</v>
+        <v>78.91692150389558</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156344</v>
+        <v>140.010210057038</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861981</v>
+        <v>370.2420869801105</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693323</v>
+        <v>720.3860579836929</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213792</v>
+        <v>1099.952904694123</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005499</v>
+        <v>1475.92911658525</v>
       </c>
       <c r="O13" t="n">
-        <v>2020.132206020528</v>
+        <v>1807.187706265507</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856733</v>
+        <v>2067.115974197813</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410168</v>
+        <v>2163.641753620775</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.516429368669</v>
+        <v>2163.641753620775</v>
       </c>
       <c r="S13" t="n">
-        <v>2272.917537148665</v>
+        <v>2118.904138641712</v>
       </c>
       <c r="T13" t="n">
-        <v>2272.917537148665</v>
+        <v>1898.122300735286</v>
       </c>
       <c r="U13" t="n">
-        <v>2272.917537148665</v>
+        <v>1609.032005488896</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.233048942778</v>
+        <v>1354.347517283009</v>
       </c>
       <c r="W13" t="n">
-        <v>1728.815878905817</v>
+        <v>1064.930347246049</v>
       </c>
       <c r="X13" t="n">
-        <v>1500.8263280078</v>
+        <v>836.9407963480313</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.03374886427</v>
+        <v>836.9407963480313</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5306,22 +5306,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.4644740681603</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>465.5282911402533</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>231.4826028053182</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2317.673418815656</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2098.071953838597</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1808.996727182795</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1554.312238976908</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1264.895068939947</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1036.90551804193</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>816.1129388984</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1022.530292372935</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>853.5941094450278</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>703.4774700326921</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>555.5643764502989</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>408.6744289523886</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487569</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487569</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V19" t="n">
-        <v>1942.378057281682</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W19" t="n">
-        <v>1652.960887244722</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1424.971336346704</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>1204.178757203174</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.843151638089</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C22" t="n">
-        <v>697.5276345711973</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>446.9048623224652</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908938</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611859</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683287</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2248.188593250933</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2350.944837543576</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2131.343372566517</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1842.268145910715</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1587.583657704828</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1298.166487667867</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1070.17693676985</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>849.3843576263199</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,13 +6537,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,16 +6771,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,13 +6929,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6947,25 +6947,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,16 +7008,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.843151638089</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C37" t="n">
-        <v>572.9069687101821</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>422.7903292978464</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>274.8772357154533</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611859</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683287</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7151,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746423</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7667,28 +7667,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458823</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7846,10 +7846,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79.51323802233365</v>
       </c>
       <c r="E2" t="n">
-        <v>23.51531481844997</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.3982747545699</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.94374837959059</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.29152613729241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7976332114348</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.49057443311936</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>78.672572802801</v>
       </c>
       <c r="S13" t="n">
-        <v>94.61558506065499</v>
+        <v>141.5023177182</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.402303949491753e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4.005432486451014</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671011953</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>53.02951788468627</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>75.37549921168578</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,16 +23941,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>211.1765892730638</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>123.374459202405</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>101.6825818796756</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>20.6187049012533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>55.21102825632966</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>85.96822242532643</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>50.61478728573221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>131.6952193743935</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038566</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>72.11969353038569</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1070105.520563425</v>
+        <v>1160965.335467731</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1158457.32974449</v>
+        <v>1067597.514840184</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1164822.559718555</v>
+        <v>1164822.559718554</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1164822.559718555</v>
+        <v>1164822.559718554</v>
       </c>
     </row>
     <row r="10">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>244059.1538127108</v>
+        <v>264781.5677382543</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="E2" t="n">
-        <v>260870.9257823601</v>
+        <v>240148.5118568166</v>
       </c>
       <c r="F2" t="n">
+        <v>262322.644899252</v>
+      </c>
+      <c r="G2" t="n">
         <v>262322.6448992519</v>
-      </c>
-      <c r="G2" t="n">
-        <v>262322.644899252</v>
       </c>
       <c r="H2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="I2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="J2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="K2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="L2" t="n">
         <v>262322.6448992519</v>
@@ -26347,13 +26347,13 @@
         <v>262322.6448992519</v>
       </c>
       <c r="N2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="O2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="P2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>278678.7256615269</v>
+        <v>392510.2442861776</v>
       </c>
       <c r="D3" t="n">
-        <v>107755.3306405337</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>589710.8045858941</v>
+        <v>423985.6110435345</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.2631150414</v>
+        <v>173247.6706769731</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>1.483574265123401e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>64793.74450285052</v>
+        <v>91259.95686487775</v>
       </c>
       <c r="L3" t="n">
-        <v>26026.3908213838</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>154015.6312544151</v>
+        <v>110732.9406547231</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704785</v>
+        <v>45616.86246457468</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238531.1995057565</v>
+        <v>274924.0351826667</v>
       </c>
       <c r="C4" t="n">
-        <v>204455.3553457811</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>15430.10738565436</v>
+        <v>15340.1448091231</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687972</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687965</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687965</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>77016.97522569951</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>100142.1285138384</v>
+        <v>86492.42130943763</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-642814.7486255046</v>
+        <v>-658500.9935112378</v>
       </c>
       <c r="C6" t="n">
-        <v>-293312.4810271154</v>
+        <v>-385073.7410250555</v>
       </c>
       <c r="D6" t="n">
-        <v>-100318.8273794113</v>
+        <v>7436.503261122096</v>
       </c>
       <c r="E6" t="n">
-        <v>-444412.1147030267</v>
+        <v>-285874.9734848869</v>
       </c>
       <c r="F6" t="n">
-        <v>134311.2119534237</v>
+        <v>-27518.93353394361</v>
       </c>
       <c r="G6" t="n">
-        <v>145763.4750684652</v>
+        <v>145728.7371430294</v>
       </c>
       <c r="H6" t="n">
-        <v>145763.4750684649</v>
+        <v>145728.7371430293</v>
       </c>
       <c r="I6" t="n">
-        <v>145763.4750684652</v>
+        <v>145728.7371430296</v>
       </c>
       <c r="J6" t="n">
-        <v>96698.53033992062</v>
+        <v>96663.79241448487</v>
       </c>
       <c r="K6" t="n">
-        <v>80969.73056561463</v>
+        <v>54468.78027815177</v>
       </c>
       <c r="L6" t="n">
-        <v>119737.0842470814</v>
+        <v>145728.7371430294</v>
       </c>
       <c r="M6" t="n">
-        <v>-8252.156185949891</v>
+        <v>34995.79648830622</v>
       </c>
       <c r="N6" t="n">
-        <v>142686.4577127604</v>
+        <v>100111.8746784548</v>
       </c>
       <c r="O6" t="n">
-        <v>145763.4750684652</v>
+        <v>145728.7371430295</v>
       </c>
       <c r="P6" t="n">
-        <v>145763.4750684652</v>
+        <v>145728.7371430295</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.147788907838168e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.147788907838168e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.147788907838168e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.147788907838168e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.147788907838168e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>765.1880957077027</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1216.310136076927</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>439.2808345274934</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>986.4615187986947</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,19 +26817,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.147788907838168e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>216.7181547947982</v>
+        <v>305.2407236247795</v>
       </c>
       <c r="D3" t="n">
-        <v>88.52256882998245</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>504.3303841787005</v>
+        <v>362.5994715392426</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288148</v>
+        <v>151.665364264747</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,43 +27009,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.5255871663199</v>
+      </c>
+      <c r="C4" t="n">
+        <v>354.5893695598433</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>444.3465620725315</v>
+      </c>
+      <c r="F4" t="n">
+        <v>186.2467693009537</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>187.5255871663198</v>
       </c>
-      <c r="C4" t="n">
-        <v>251.7552473611736</v>
-      </c>
-      <c r="D4" t="n">
-        <v>102.8341221986709</v>
-      </c>
-      <c r="E4" t="n">
-        <v>618.0303335998422</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12.56299777364188</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>187.5255871663196</v>
-      </c>
       <c r="K4" t="n">
-        <v>251.7552473611736</v>
+        <v>354.5893695598433</v>
       </c>
       <c r="L4" t="n">
-        <v>102.8341221986709</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>618.0303335998422</v>
+        <v>444.3465620725315</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364188</v>
+        <v>186.2467693009537</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.147788907838168e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>251.7552473611736</v>
+        <v>354.5893695598433</v>
       </c>
       <c r="L4" t="n">
-        <v>102.8341221986709</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>618.0303335998422</v>
+        <v>444.3465620725315</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364188</v>
+        <v>186.2467693009537</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>237.5351834591555</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>87.64421643202941</v>
       </c>
       <c r="E2" t="n">
-        <v>270.3242370943811</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,10 +27458,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>6.230938197428287</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,16 +27470,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377108</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>113.5721975443852</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098447</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>94.21801639213474</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27594,7 +27594,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>199.9216970693937</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>337.1680881031721</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>129.8859422338332</v>
       </c>
       <c r="H5" t="n">
-        <v>307.9713545372083</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>22.35439523323168</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>209.6300771461998</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,16 +27701,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.6976408818771</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>12.63402443665049</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8331007466766</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>161.0153814954842</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6111319727563</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>149.9590748418308</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>113.9547008190438</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>29.44021127023541</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.96159917758274</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>115.2504352891318</v>
+        <v>70.77243310208675</v>
       </c>
       <c r="S7" t="n">
-        <v>199.969621324322</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>167.0834871628575</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>184.7812763101221</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>112.81499454051</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>124.2409181116676</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>74.2238333171489</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>95.02373403628434</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28029,10 +28029,10 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>37.75633279164295</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28068,7 +28068,7 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.108527872669843e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.168372063914874e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>5.785973998768142e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.356902736469887e-12</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.56674739427399e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-7.678911241128449e-15</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-8.300560239149491e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.300560239149491e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31075,10 +31075,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,7 +31121,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31130,7 +31130,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31139,7 +31139,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31148,19 +31148,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.076133048071164</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>31.50344757855882</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>118.5926193357637</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>261.0829472887302</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>391.2956592135827</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>485.4368659834907</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>540.1420470771262</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>548.8821100999585</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>518.2938121032008</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>442.3517774789439</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>332.1877626948952</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>193.2311425809004</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>70.09738183292173</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>13.46577241793153</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2460906438456931</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.645876281333549</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>15.89569987498454</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>56.66723161608931</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>155.499214807921</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>265.7729256572688</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>357.3644969623568</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>417.0275121606979</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>428.0649895035006</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>391.5958361118467</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>314.2901821785091</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0946635611036</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>102.1887045550778</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>30.57143005020867</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>6.634036414673383</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1082813342982599</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.379847385702414</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>12.26809766560875</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>41.49577410821444</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>97.5552101691607</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>160.313178084335</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>205.1456740525208</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>216.2973497424248</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>211.1542822138978</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>195.035155935465</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>166.8862692671356</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>115.5434024518631</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>62.04295608803764</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>24.04697671265025</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>5.895711557092134</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07526440285649542</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>4.889688989253973</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>50.07652736119726</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>188.509734758214</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>415.0062408516948</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>621.9867757668155</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>771.629595171697</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293309</v>
+        <v>858.5866017343424</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>872.4794305750603</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>823.857585688166</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>703.1433887659584</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>528.0314018383003</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>307.1519259712252</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>111.423787842625</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>21.40461355045928</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.3911751191403178</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.616214254957918</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>25.26712188340937</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>90.07579781324411</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745725</v>
+        <v>534.0735633456634</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>662.889024161925</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>680.4337241436385</v>
       </c>
       <c r="O12" t="n">
-        <v>422.3544583169084</v>
+        <v>622.4639240732552</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>499.5821764577098</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>333.9574547205932</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>48.59503232345077</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>10.54517938730845</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1721193588788105</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.193346147023966</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>19.50084119808582</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>65.95990049413892</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>155.0695725945944</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>254.8269432633298</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>326.0907535311813</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>343.8169783012204</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>335.6417790259495</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>310.019508126624</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>265.2752467273348</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>183.6628305476159</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860859</v>
+        <v>98.62081857436849</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>38.22404148949946</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551969</v>
+        <v>9.37156990092058</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1196370625649437</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,31 +32546,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>433.9798411722585</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,16 +33263,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34787,16 +34787,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>80.03704276204394</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>171.2058081686021</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>249.6704510135035</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>309.7958138498535</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>319.4690465033676</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>288.1956006815141</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>211.1187817236743</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>109.8820728204457</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>28.66158814125433</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K6" t="n">
-        <v>127.9314866829098</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L6" t="n">
-        <v>218.8101171824827</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>274.8934782386796</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>296.7232774201673</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>248.9995916674022</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>180.3157747641789</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.11288947508208</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>31.29991991379967</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L7" t="n">
-        <v>70.26099777128255</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M7" t="n">
-        <v>77.37156579481979</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N7" t="n">
-        <v>83.46873774866464</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O7" t="n">
-        <v>56.5786174836222</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P7" t="n">
-        <v>29.15826521798797</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>233.9603363250085</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>401.896924721835</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>535.8631802017098</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020582</v>
+        <v>628.2403685070697</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>643.0663669784694</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>593.7593742664792</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>471.9103930106889</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>305.7257119638508</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>91.56638815709306</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946983</v>
+        <v>395.5191835657893</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>520.7549902399066</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>549.0920120603053</v>
       </c>
       <c r="O12" t="n">
-        <v>279.758213872464</v>
+        <v>479.8676796288107</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>365.6077690433796</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>193.9756806345717</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>61.7103924779216</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>232.557451437447</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>353.6807787914975</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>383.400855263061</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>379.7739514051781</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>334.6046360406636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>262.5538059922283</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>97.50078729592154</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572999007</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>291.8458072502402</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,13 +36914,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
